--- a/test/branch2.xlsx
+++ b/test/branch2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhiraj Das\Documents\DMSBackend\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{222895A0-2E41-434D-AA40-1F6AF9842BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBEFC42-7BD2-4C96-90A2-02605463C2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,22 +49,22 @@
     <t>pincode</t>
   </si>
   <si>
+    <t>123 Street, Area A</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>27ABCDE1234F1Z5</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
     <t>Branch A</t>
-  </si>
-  <si>
-    <t>123 Street, Area A</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>27ABCDE1234F1Z5</t>
-  </si>
-  <si>
-    <t>India</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,25 +474,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>9876543210</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
       </c>
       <c r="I2">
         <v>400001</v>
